--- a/email_list.xlsx
+++ b/email_list.xlsx
@@ -1,77 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\nicecoding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="6810"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="26520" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>성명</t>
-  </si>
-  <si>
-    <t>이메일주소</t>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>발송결과</t>
-  </si>
-  <si>
-    <t>발송일시</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,45 +60,101 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -175,9 +204,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -210,9 +239,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -391,54 +420,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col width="13.375" customWidth="1" style="4" min="1" max="1"/>
+    <col width="25.375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="23" customWidth="1" style="4" min="3" max="3"/>
+    <col width="52" customWidth="1" style="4" min="4" max="4"/>
+    <col width="16.375" customWidth="1" style="4" min="5" max="5"/>
+    <col width="21.25" customWidth="1" style="4" min="6" max="6"/>
+    <col width="17.625" customWidth="1" style="4" min="7" max="7"/>
+    <col width="22" customWidth="1" style="4" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>성명</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>이메일주소</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>제목</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>발송결과</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>발송일시</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>파일1</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>파일2</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="B2" s="1"/>
-      <c r="C2"/>
-      <c r="D2" s="2"/>
+    <row r="2" ht="49.5" customHeight="1" s="4">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>oralol@naver.com</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>{이름} 고객님, 안녕하세요.</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>안녕하세요, 엑셀과 파이썬으로 보내는 이메일 입니다.
+개인별로 내용을 다르게 입력해서 보낼 수 있습니다.
+{이름} 고객님에게 보내드리는 유익한 정보입니다.</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>성공</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>2021-10-27 19:44:26</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>C:\Temp\ryan.jpg</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>C:\Temp\parking.jpg</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3" s="1"/>
-      <c r="C3"/>
-      <c r="D3" s="2"/>
+    <row r="3" ht="49.5" customHeight="1" s="4">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>나이스코딩</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>nicecoding@naver.com</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>{이름} 고객님, 안녕하세요.</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>안녕하세요, 엑셀과 파이썬으로 보내는 이메일 입니다.
+개인별로 내용을 다르게 입력해서 보낼 수 있습니다.
+{이름} 고객님에게 보내드리는 유익한 정보입니다.</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>성공</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>2021-10-27 19:44:27</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>C:\Temp\ryan.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>